--- a/GECO/EIS/2022-opt-out-form_annual.xlsx
+++ b/GECO/EIS/2022-opt-out-form_annual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gets.sharepoint.com/sites/EmissionsandControlStrategiesUnit/Shared Documents/Emission Inventory/2022/QA/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7015389D-E00D-4FDA-AF7A-A7DB25544CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="776" documentId="13_ncr:1_{C96C6DAC-60EE-4DE1-9C16-219E4B3C65CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27AB9FF6-2D28-41A6-86D4-65A54D5F9E3A}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2895" windowWidth="38640" windowHeight="21840" xr2:uid="{CACAC4CB-994E-45FD-A41B-F437926AC343}"/>
+    <workbookView xWindow="-37710" yWindow="2175" windowWidth="28980" windowHeight="15780" xr2:uid="{CACAC4CB-994E-45FD-A41B-F437926AC343}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,172 @@
     <t>2022 Georgia Emission Inventory (EI) Opt-Out Form</t>
   </si>
   <si>
+    <t>Do not delete content in grey filled cells.</t>
+  </si>
+  <si>
+    <t>Facility Information</t>
+  </si>
+  <si>
+    <t>NEI Year</t>
+  </si>
+  <si>
+    <t>Triennial/Annual EI Year?</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Triennial</t>
+  </si>
+  <si>
+    <t>Opt-Out Justification</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PTE Justification type</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>Select PTE emissions justification.</t>
+  </si>
+  <si>
+    <t>EI Threshold</t>
+  </si>
+  <si>
+    <t>Threshold (tpy)</t>
+  </si>
+  <si>
+    <t>(tpy)</t>
+  </si>
+  <si>
+    <t>Lead (Pb)</t>
+  </si>
+  <si>
+    <t>Triennial EI Year: Lead (Pb) actual emissions</t>
+  </si>
+  <si>
+    <t>0.5 (actual)</t>
+  </si>
+  <si>
+    <t>(Select)</t>
+  </si>
+  <si>
+    <t>Pollutant not emitted.</t>
+  </si>
+  <si>
+    <t>PTE from Title V application</t>
+  </si>
+  <si>
+    <t>Pb not required during Annual EI Year.</t>
+  </si>
+  <si>
+    <t>Triennial EI Year: Lead (Pb) not emitted.</t>
+  </si>
+  <si>
+    <t>• Please enter Potential to Emit (PTE) emissions below.</t>
+  </si>
+  <si>
+    <t>• Next, select PTE emissions justification.</t>
+  </si>
+  <si>
+    <t>Facility Response</t>
+  </si>
+  <si>
+    <t>Upon completion, please upload this form into the Combined Air Emissions Reporting System (CAERS) as your opt-out justification.</t>
+  </si>
+  <si>
     <t>Guidelines</t>
+  </si>
+  <si>
+    <t>See below:</t>
+  </si>
+  <si>
+    <t>2022 Georgia Point Source Emission Inventory (EI) Opt-Out Form</t>
+  </si>
+  <si>
+    <t>Form instructions:</t>
+  </si>
+  <si>
+    <r>
+      <t>Light yellow cells indicate a dr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">op-down list. </t>
+    </r>
+  </si>
+  <si>
+    <t>AIRS Number:</t>
+  </si>
+  <si>
+    <t>Facility Name:</t>
+  </si>
+  <si>
+    <t>• Once selected, the next cell will autopopulate and you can provide your response accordingly in the "Facility Response" column.</t>
+  </si>
+  <si>
+    <t>Example facility response:</t>
+  </si>
+  <si>
+    <t>Provide TV Permit # and limit condition: 2631-039-0001-V-05-1 permit condition 3.2.4 
+Provide Title V application #: TV-45678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTE </t>
+  </si>
+  <si>
+    <t>Permit condition limit.</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Pb*</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>All cells are required fields unless specified otherwise. Fields with an asterisk (*) are only required during a triennial year.</t>
+  </si>
+  <si>
+    <t>If additional information needs to be provided, here are three acceptable methods:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Enter notes under the "Opt-out Justification" table. </t>
+  </si>
+  <si>
+    <t>(3) Upload any additional document to supplement what you enter below and indicate in the "Facility Response" where the additional notes are located.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) Add notes on an added tab within this spreadsheet and indicate in the "Facility Response" where the additional notes are located. </t>
   </si>
   <si>
     <r>
@@ -451,177 +616,12 @@
 </t>
     </r>
   </si>
-  <si>
-    <t>2022 Georgia Point Source Emission Inventory (EI) Opt-Out Form</t>
-  </si>
-  <si>
-    <t>Form instructions:</t>
-  </si>
-  <si>
-    <t>Do not delete content in grey filled cells.</t>
-  </si>
-  <si>
-    <r>
-      <t>Light yellow cells indicate a dr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">op-down list. </t>
-    </r>
-  </si>
-  <si>
-    <t>All cells are required fields unless specified otherwise. Fields with an asterisk (*) are only required during a triennial year.</t>
-  </si>
-  <si>
-    <t>Upon completion, please upload this form into the Combined Air Emissions Reporting System (CAERS) as your opt-out justification.</t>
-  </si>
-  <si>
-    <t>If additional information needs to be provided, here are three acceptable methods:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Enter notes under the "Opt-out Justification" table. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Add notes on an added tab within this spreadsheet and indicate in the "Facility Response" where the additional notes are located. </t>
-  </si>
-  <si>
-    <t>(3) Upload any additional document to supplement what you enter below and indicate in the "Facility Response" where the additional notes are located.</t>
-  </si>
-  <si>
-    <t>Facility Information</t>
-  </si>
-  <si>
-    <t>NEI Year</t>
-  </si>
-  <si>
-    <t>Triennial/Annual EI Year?</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Triennial</t>
-  </si>
-  <si>
-    <t>AIRS Number:</t>
-  </si>
-  <si>
-    <t>Facility Name:</t>
-  </si>
-  <si>
-    <t>Opt-Out Justification</t>
-  </si>
-  <si>
-    <t>• Please enter Potential to Emit (PTE) emissions below.</t>
-  </si>
-  <si>
-    <t>• Next, select PTE emissions justification.</t>
-  </si>
-  <si>
-    <t>• Once selected, the next cell will autopopulate and you can provide your response accordingly in the "Facility Response" column.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTE </t>
-  </si>
-  <si>
-    <t>Facility Response</t>
-  </si>
-  <si>
-    <t>PTE Justification type</t>
-  </si>
-  <si>
-    <t>Pollutant</t>
-  </si>
-  <si>
-    <t>EI Threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions </t>
-  </si>
-  <si>
-    <t>Select PTE emissions justification.</t>
-  </si>
-  <si>
-    <t>See below:</t>
-  </si>
-  <si>
-    <t>Example facility response:</t>
-  </si>
-  <si>
-    <t>Threshold (tpy)</t>
-  </si>
-  <si>
-    <t>(Select)</t>
-  </si>
-  <si>
-    <t>(tpy)</t>
-  </si>
-  <si>
-    <t>Provide TV Permit # and limit condition: 2631-039-0001-V-05-1 permit condition 3.2.4 
-Provide Title V application #: TV-45678</t>
-  </si>
-  <si>
-    <t>Permit condition limit.</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>PTE from Title V application</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>Pollutant not emitted.</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Lead (Pb)</t>
-  </si>
-  <si>
-    <t>Pb*</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Pb not required during Annual EI Year.</t>
-  </si>
-  <si>
-    <t>0.5 (actual)</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM2.5</t>
-  </si>
-  <si>
-    <t>Triennial EI Year: Lead (Pb) not emitted.</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>Triennial EI Year: Lead (Pb) actual emissions</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -940,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -961,6 +961,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -974,6 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1013,6 +1019,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1027,8 +1036,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1042,28 +1060,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1235,8 +1234,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1524,7 +1527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,895 +1538,896 @@
   <dimension ref="B1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:M64"/>
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:13" ht="7.5" customHeight="1" thickTop="1">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75">
-      <c r="B3" s="78" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75">
-      <c r="B4" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-    </row>
-    <row r="5" spans="2:13" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="7" spans="2:13" ht="15.75" thickTop="1">
-      <c r="B7" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-    </row>
-    <row r="25" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="71"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="71"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="70"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="70"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="70"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="70"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="70"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="70"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="70"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="70"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="70"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="70"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="70"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="70"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="70"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="70"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="70"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="70"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="70"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="68"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="70"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="70"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="70"/>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="70"/>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="70"/>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="70"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="70"/>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="70"/>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="70"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="70"/>
-    </row>
-    <row r="64" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B64" s="72"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="74"/>
-    </row>
-    <row r="65" ht="15.6" customHeight="1" thickTop="1"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="69"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="69"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="69"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="85"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="70"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="70"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="69"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="69"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="69"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="69"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="69"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="69"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="69"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="69"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="69"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="69"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="69"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="69"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="69"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="69"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="69"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="69"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="69"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="69"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="69"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="69"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="69"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="69"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="69"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="69"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="69"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="69"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" s="67"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="69"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="69"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="69"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="69"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="69"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="69"/>
+    </row>
+    <row r="64" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="73"/>
+    </row>
+    <row r="65" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="S4gWZ/kjFXE0lP8sf93TLt5h0VbwP3jIdblpvFWmjKycEMXxjVxYNpYGsf8zPww6DFB83d1JJyJhs3ghKO+7oQ==" saltValue="/ySa7kQLhPRg2+kvafCRLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="B7:M25"/>
     <mergeCell ref="B27:M64"/>
@@ -2444,10 +2448,10 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="1.6640625" customWidth="1"/>
@@ -2465,719 +2469,719 @@
     <col min="15" max="15" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:14" ht="8.25" customHeight="1" thickTop="1">
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="19"/>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="57"/>
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="2:14" ht="7.5" customHeight="1">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="58"/>
+    <row r="4" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75">
-      <c r="B5" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="19"/>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="2:14" ht="15.75">
-      <c r="B6" s="60"/>
-      <c r="C6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="19"/>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="8"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="2:14" ht="15.75">
-      <c r="B7" s="60"/>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="51"/>
       <c r="C7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="8"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:14" ht="15.75">
-      <c r="B8" s="49"/>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="2:14" ht="15.75">
-      <c r="B9" s="49"/>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="8"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" ht="15.75">
-      <c r="B10" s="49"/>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="8"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75">
-      <c r="B11" s="49"/>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="55"/>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="8"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75">
-      <c r="B12" s="49"/>
-      <c r="C12" s="64" t="s">
-        <v>13</v>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="8"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="2:14" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+    <row r="13" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="K13" s="8"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" thickTop="1">
+    <row r="14" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K14" s="8"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75">
-      <c r="B15" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="K15" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75">
-      <c r="B16" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="35"/>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="37"/>
       <c r="K16" s="9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="2:14" ht="15.75">
-      <c r="B17" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" ht="15.75">
-      <c r="B18" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="2:14" ht="15.75">
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="2:14" ht="16.5" customHeight="1">
-      <c r="B20" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
+    <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="K20" s="8"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="2:14" ht="7.5" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="21"/>
+    <row r="21" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="54"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="1"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" ht="15.75">
-      <c r="B22" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="54"/>
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:14" ht="15.75">
-      <c r="B23" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="54"/>
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75">
-      <c r="B24" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="54"/>
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="2:14" ht="15.75">
-      <c r="B25" s="38"/>
-      <c r="C25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="54"/>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="2:14" ht="15.75">
-      <c r="B26" s="39"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="25" t="str">
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="27" t="str">
         <f>E16</f>
         <v>Annual</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="55"/>
+      <c r="I26" s="61"/>
       <c r="K26" s="9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75">
-      <c r="B27" s="39"/>
-      <c r="C27" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="55"/>
+      <c r="H27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="61"/>
       <c r="K27" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="30">
-      <c r="B28" s="39"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="61"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="7"/>
       <c r="N28" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="18">
-      <c r="B29" s="39"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
       <c r="C29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="13">
+        <v>40</v>
+      </c>
+      <c r="D29" s="14">
         <f t="shared" ref="D29:D36" si="0">IF($E$16="Triennial",L29,K29)</f>
         <v>250</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G29" s="19" t="str">
         <f>IF(F29=$N$27,"Select PTE emissions justification",IF(F29=$N$28,"Provide permit # and permit condition limit.",IF(F29=$N$29,"Provide Title V application #.","No response required.")))</f>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="55"/>
-      <c r="K29" s="12">
+      <c r="H29" s="34"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="13">
         <v>250</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="13">
         <v>100</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="15.75">
-      <c r="B30" s="39"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="41"/>
       <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G30" s="19" t="str">
         <f>IF(F30=$N$27,"Select PTE emissions justification",IF(F30=$N$28,"Provide permit # and permit condition limit.",IF(F30=$N$29,"Provide Title V application #.","No response required.")))</f>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="55"/>
-      <c r="K30" s="12">
+      <c r="H30" s="35"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="13">
         <v>2500</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="13">
         <v>100</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="41"/>
+      <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="39"/>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="D31" s="14">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G31" s="19" t="str">
         <f t="shared" ref="G31:G32" si="1">IF(F31=$N$27,"Select PTE emissions justification",IF(F31=$N$28,"Provide permit # and permit condition limit.",IF(F31=$N$29,"Provide Title V application #.","No response required.")))</f>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="55"/>
-      <c r="K31" s="22">
+      <c r="H31" s="19"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="24">
         <v>2500</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="24">
         <v>100</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="39"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="41"/>
       <c r="C32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="13">
+        <v>43</v>
+      </c>
+      <c r="D32" s="14">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G32" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="55"/>
-      <c r="K32" s="22">
+      <c r="H32" s="19"/>
+      <c r="I32" s="61"/>
+      <c r="K32" s="24">
         <v>2500</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="24">
         <v>1000</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="39"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="13" t="str">
+        <v>44</v>
+      </c>
+      <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>47</v>
+      <c r="E33" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="18" t="str">
+        <v>21</v>
+      </c>
+      <c r="G33" s="19" t="str">
         <f>IF(F33=N33,"Select PTE emissions justification.",IF(F33=N34,"No response required.",IF(F33=N35,"No response required.",IF(F33=N36,"Attach actual emission calculations in spreadsheet or upload separately."))))</f>
         <v>No response required.</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="55"/>
-      <c r="K33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="15.75">
-      <c r="B34" s="39"/>
+      <c r="H33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="61"/>
+      <c r="K33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="41"/>
       <c r="C34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="13">
+        <v>45</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G34" s="19" t="str">
         <f t="shared" ref="G34:G36" si="2">IF(F34=$N$27,"Select PTE emissions justification",IF(F34=$N$28,"Provide permit # and permit condition limit.",IF(F34=$N$29,"Provide Title V application #.","No response required.")))</f>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="55"/>
-      <c r="K34" s="22">
+      <c r="H34" s="35"/>
+      <c r="I34" s="61"/>
+      <c r="K34" s="24">
         <v>250</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="24">
         <v>100</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="18">
-      <c r="B35" s="39"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="41"/>
       <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="13">
+        <v>47</v>
+      </c>
+      <c r="D35" s="14">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G35" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="55"/>
-      <c r="K35" s="22">
+      <c r="H35" s="34"/>
+      <c r="I35" s="61"/>
+      <c r="K35" s="24">
         <v>250</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="24">
         <v>100</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="39"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="13">
+        <v>46</v>
+      </c>
+      <c r="D36" s="14">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="18" t="str">
+        <v>18</v>
+      </c>
+      <c r="G36" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Select PTE emissions justification</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="55"/>
-      <c r="K36" s="22">
+      <c r="H36" s="19"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="24">
         <v>250</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="24">
         <v>100</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="7.5" customHeight="1">
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="56"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75">
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3185,15 +3189,16 @@
       <c r="H38" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="L1xEoS/tojDFOxAsfIEdzC5aZfjnRy8/LtoDymaLQcIgAXxGRB2zRvueS/88KqrqRi8Ot1FY+q7d0xUoYwZpyA==" saltValue="EDmBvnz8k0P1nuX6vk/YZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
+    <protectedRange sqref="H34:H36" name="Facility Response below Pb"/>
+    <protectedRange sqref="H29:H32" name="Facility Response above Pb"/>
+    <protectedRange sqref="E34:E36" name="PTE emissions below Pb"/>
+    <protectedRange sqref="E29:E32" name="PTE emissions above Pb"/>
+    <protectedRange sqref="F34:F36" name="PTE justification below Pb"/>
+    <protectedRange sqref="F29:F32" name="PTE justification above Pb"/>
+    <protectedRange sqref="E17:G18" name="Facility Information"/>
     <protectedRange sqref="A38:XFD1132" name="Blank space below table"/>
-    <protectedRange sqref="E17:G18" name="Facility Information"/>
-    <protectedRange sqref="F29:F32" name="PTE justification above Pb"/>
-    <protectedRange sqref="F34:F36" name="PTE justification below Pb"/>
-    <protectedRange sqref="E29:E32" name="PTE emissions above Pb"/>
-    <protectedRange sqref="E34:E36" name="PTE emissions below Pb"/>
-    <protectedRange sqref="H29:H32" name="Facility Response above Pb"/>
-    <protectedRange sqref="H34:H36" name="Facility Response below Pb"/>
   </protectedRanges>
   <mergeCells count="12">
     <mergeCell ref="B18:D18"/>
@@ -3234,6 +3239,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E5D33C20B60FB4094ACE0FF35E1F214" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4099dac1354380913473cc3784fb84d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f254427-4c97-4196-ad61-b055f5f542e4" xmlns:ns3="6601c63a-c8bd-4021-b252-e7c1551181e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c34d84262926f4f2dcc57c64fa8f0c88" ns2:_="" ns3:_="">
     <xsd:import namespace="8f254427-4c97-4196-ad61-b055f5f542e4"/>
@@ -3450,7 +3464,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8f254427-4c97-4196-ad61-b055f5f542e4">
@@ -3483,23 +3497,46 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B720F1C4-75CF-4E6C-9D7D-6259100D0522}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97718A8F-2529-4520-A1B0-F88A0D31D559}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15691EED-C8CB-42C5-8703-DB06CB72D7AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B720F1C4-75CF-4E6C-9D7D-6259100D0522}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f254427-4c97-4196-ad61-b055f5f542e4"/>
+    <ds:schemaRef ds:uri="6601c63a-c8bd-4021-b252-e7c1551181e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97718A8F-2529-4520-A1B0-F88A0D31D559}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15691EED-C8CB-42C5-8703-DB06CB72D7AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f254427-4c97-4196-ad61-b055f5f542e4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6601c63a-c8bd-4021-b252-e7c1551181e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>